--- a/excel_routes/route_TUU_CAI_threats.xlsx
+++ b/excel_routes/route_TUU_CAI_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -58,12 +58,6 @@
         <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F8D7DA"/>
-        <bgColor rgb="00F8D7DA"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -83,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -95,9 +89,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +473,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -546,7 +537,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>07-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -556,26 +547,26 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-118</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>520</v>
+        <v>355</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45</v>
+        <v>-45</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
@@ -591,7 +582,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>07-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -601,26 +592,26 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-118</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>520</v>
+        <v>355</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>80</v>
+        <v>-45</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
@@ -636,7 +627,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>08-JAN-26</t>
+          <t>21-JAN-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -646,17 +637,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>Air Arabia Egypt E5-590</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>440</v>
+        <v>353</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-85</v>
+        <v>-15</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -681,7 +672,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>08-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -691,26 +682,26 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Air Arabia Egypt E5-590</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>529</v>
+        <v>338</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>440</v>
+        <v>353</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>89</v>
+        <v>-15</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
@@ -726,7 +717,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>14-JAN-26</t>
+          <t>04-FEB-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -740,13 +731,13 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>353</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-30</v>
+        <v>-15</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -771,7 +762,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -781,26 +772,26 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-590</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>323</v>
+        <v>467</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>353</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-30</v>
+        <v>114</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
@@ -816,7 +807,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -826,26 +817,26 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>451</v>
+        <v>355</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>98</v>
+        <v>-45</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
@@ -871,26 +862,26 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>451</v>
+        <v>355</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>98</v>
+        <v>-45</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
@@ -906,7 +897,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -920,13 +911,13 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>46</v>
@@ -951,7 +942,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -961,17 +952,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>441</v>
+        <v>355</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-34</v>
+        <v>-45</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30</v>
@@ -996,7 +987,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1010,13 +1001,13 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-24</v>
+        <v>67</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>46</v>
@@ -1027,9 +1018,9 @@
       <c r="I12" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J12" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1041,7 +1032,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1051,17 +1042,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-118</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>520</v>
+        <v>441</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-30</v>
+        <v>-34</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>30</v>
@@ -1086,7 +1077,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1096,30 +1087,30 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>520</v>
+        <v>467</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>616</v>
+        <v>475</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-96</v>
+        <v>-8</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J14" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1131,7 +1122,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1141,17 +1132,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>Air Arabia Egypt E5-590</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>520</v>
+        <v>338</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>616</v>
+        <v>550</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-96</v>
+        <v>-212</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>30</v>
@@ -1162,9 +1153,9 @@
       <c r="I15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J15" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1176,7 +1167,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1186,30 +1177,30 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nile Air NP-118</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>616</v>
+        <v>550</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-87</v>
+        <v>-30</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J16" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1221,7 +1212,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1231,26 +1222,26 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>400</v>
+        <v>616</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>129</v>
+        <v>-96</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
@@ -1266,7 +1257,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1276,17 +1267,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
         <v>520</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>580</v>
+        <v>616</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-60</v>
+        <v>-96</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>30</v>
@@ -1311,7 +1302,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1321,30 +1312,30 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>580</v>
+        <v>616</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-60</v>
+        <v>-70</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J19" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1356,7 +1347,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1370,13 +1361,13 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-51</v>
+        <v>146</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>46</v>
@@ -1387,9 +1378,9 @@
       <c r="I20" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J20" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1401,7 +1392,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>25-FEB-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1411,17 +1402,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>Air Arabia Egypt E5-590</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>520</v>
+        <v>338</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-60</v>
+        <v>-62</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>30</v>
@@ -1446,7 +1437,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1456,7 +1447,7 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
@@ -1491,7 +1482,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1501,30 +1492,30 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>580</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-51</v>
+        <v>-60</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1536,7 +1527,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>04-MAR-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1546,26 +1537,26 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-118</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>730</v>
+        <v>580</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-210</v>
+        <v>-34</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
@@ -1581,7 +1572,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>04-MAR-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1595,13 +1586,13 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>730</v>
+        <v>580</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-180</v>
+        <v>-60</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>30</v>
@@ -1626,7 +1617,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1636,17 +1627,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>850</v>
+        <v>580</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-300</v>
+        <v>-60</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>30</v>
@@ -1657,9 +1648,9 @@
       <c r="I26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J26" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
@@ -1671,7 +1662,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1685,13 +1676,13 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>720</v>
+        <v>546</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>850</v>
+        <v>580</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-130</v>
+        <v>-34</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>46</v>
@@ -1708,951 +1699,6 @@
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>05-MAR-26</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-108</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>845</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>850</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>-5</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>07-MAR-26</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>Nesma Airlines NE-121</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>550</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>658</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>-108</v>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>07-MAR-26</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-108</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>658</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>-58</v>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>07-MAR-26</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>654</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>658</v>
-      </c>
-      <c r="F31" s="2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J31" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>11-MAR-26</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>Nesma Airlines NE-121</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>650</v>
-      </c>
-      <c r="E32" s="2" t="n">
-        <v>658</v>
-      </c>
-      <c r="F32" s="2" t="n">
-        <v>-8</v>
-      </c>
-      <c r="G32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>11-MAR-26</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-118</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>651</v>
-      </c>
-      <c r="E33" s="2" t="n">
-        <v>658</v>
-      </c>
-      <c r="F33" s="2" t="n">
-        <v>-7</v>
-      </c>
-      <c r="G33" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>12-MAR-26</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>Nesma Airlines NE-121</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>650</v>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v>1030</v>
-      </c>
-      <c r="F34" s="2" t="n">
-        <v>-380</v>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>12-MAR-26</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-108</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>651</v>
-      </c>
-      <c r="E35" s="2" t="n">
-        <v>1030</v>
-      </c>
-      <c r="F35" s="2" t="n">
-        <v>-379</v>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>12-MAR-26</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>654</v>
-      </c>
-      <c r="E36" s="2" t="n">
-        <v>1030</v>
-      </c>
-      <c r="F36" s="2" t="n">
-        <v>-376</v>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J36" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>14-MAR-26</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>Nesma Airlines NE-121</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>650</v>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>1030</v>
-      </c>
-      <c r="F37" s="2" t="n">
-        <v>-380</v>
-      </c>
-      <c r="G37" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>14-MAR-26</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-108</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>651</v>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v>1030</v>
-      </c>
-      <c r="F38" s="2" t="n">
-        <v>-379</v>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>14-MAR-26</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>654</v>
-      </c>
-      <c r="E39" s="2" t="n">
-        <v>1030</v>
-      </c>
-      <c r="F39" s="2" t="n">
-        <v>-376</v>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J39" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>18-MAR-26</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>Nesma Airlines NE-121</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>950</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>1810</v>
-      </c>
-      <c r="F40" s="2" t="n">
-        <v>-860</v>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>18-MAR-26</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-118</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>950</v>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>1810</v>
-      </c>
-      <c r="F41" s="2" t="n">
-        <v>-860</v>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>18-MAR-26</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-590</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>1173</v>
-      </c>
-      <c r="E42" s="2" t="n">
-        <v>1810</v>
-      </c>
-      <c r="F42" s="2" t="n">
-        <v>-637</v>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>19-MAR-26</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>880</v>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>1810</v>
-      </c>
-      <c r="F43" s="2" t="n">
-        <v>-930</v>
-      </c>
-      <c r="G43" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J43" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>19-MAR-26</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>Nesma Airlines NE-121</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>950</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>1810</v>
-      </c>
-      <c r="F44" s="2" t="n">
-        <v>-860</v>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>19-MAR-26</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-108</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>950</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>1810</v>
-      </c>
-      <c r="F45" s="2" t="n">
-        <v>-860</v>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>21-MAR-26</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>880</v>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>658</v>
-      </c>
-      <c r="F46" s="2" t="n">
-        <v>222</v>
-      </c>
-      <c r="G46" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J46" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>26-MAR-26</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>720</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>580</v>
-      </c>
-      <c r="F47" s="2" t="n">
-        <v>140</v>
-      </c>
-      <c r="G47" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>28-MAR-26</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>720</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>580</v>
-      </c>
-      <c r="F48" s="2" t="n">
-        <v>140</v>
-      </c>
-      <c r="G48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J48" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_TUU_CAI_threats.xlsx
+++ b/excel_routes/route_TUU_CAI_threats.xlsx
@@ -546,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -556,26 +556,26 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>319</v>
+        <v>412</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>334</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-15</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>04-FEB-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -601,26 +601,26 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Air Arabia Egypt E5-590</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>412</v>
+        <v>338</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>78</v>
+        <v>-36</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
@@ -646,17 +646,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-590</t>
+          <t>Nile Air NP-118</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>374</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-36</v>
+        <v>-19</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -681,7 +681,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>04-FEB-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-118</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
@@ -781,26 +781,26 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>355</v>
+        <v>467</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>374</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-19</v>
+        <v>93</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -826,26 +826,26 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>467</v>
+        <v>355</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>374</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>93</v>
+        <v>-19</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
@@ -916,26 +916,26 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>355</v>
+        <v>467</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>374</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-19</v>
+        <v>93</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>11-FEB-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -961,26 +961,26 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nile Air NP-118</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>467</v>
+        <v>355</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>374</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>93</v>
+        <v>-19</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>11-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1006,17 +1006,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-118</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
         <v>355</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-19</v>
+        <v>-53</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
@@ -1096,26 +1096,26 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>355</v>
+        <v>467</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>408</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-53</v>
+        <v>59</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1148,10 +1148,10 @@
         <v>467</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>46</v>
@@ -1162,9 +1162,9 @@
       <c r="I15" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J15" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1176,7 +1176,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1186,26 +1186,26 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Air Arabia Egypt E5-590</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>467</v>
+        <v>338</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>438</v>
+        <v>550</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>29</v>
+        <v>-212</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4" t="inlineStr">
         <is>
@@ -1231,17 +1231,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-590</t>
+          <t>Nile Air NP-118</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>338</v>
+        <v>441</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>550</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-212</v>
+        <v>-109</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>30</v>
@@ -1252,9 +1252,9 @@
       <c r="I17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1266,7 +1266,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1276,17 +1276,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-118</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
         <v>441</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>550</v>
+        <v>616</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-109</v>
+        <v>-175</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>30</v>
@@ -1321,17 +1321,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>441</v>
+        <v>520</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>616</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-175</v>
+        <v>-96</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>30</v>
@@ -1366,30 +1366,30 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>616</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-96</v>
+        <v>-70</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1418,10 +1418,10 @@
         <v>546</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>616</v>
+        <v>400</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-70</v>
+        <v>146</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>46</v>
@@ -1432,9 +1432,9 @@
       <c r="I21" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1446,7 +1446,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>25-FEB-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1456,26 +1456,26 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Air Arabia Egypt E5-590</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>546</v>
+        <v>338</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>146</v>
+        <v>-137</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
@@ -1501,17 +1501,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-590</t>
+          <t>Nile Air NP-118</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>338</v>
+        <v>441</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>475</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-137</v>
+        <v>-34</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>30</v>
@@ -1536,7 +1536,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>25-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1546,17 +1546,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-118</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
         <v>441</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>475</v>
+        <v>580</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-34</v>
+        <v>-139</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>30</v>
@@ -1591,17 +1591,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>441</v>
+        <v>520</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>580</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-139</v>
+        <v>-60</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>30</v>
@@ -1636,30 +1636,30 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>580</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-60</v>
+        <v>-34</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J26" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1681,30 +1681,30 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>546</v>
+        <v>441</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>580</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-34</v>
+        <v>-139</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J27" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1726,17 +1726,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>441</v>
+        <v>520</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>580</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-139</v>
+        <v>-60</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>30</v>
@@ -1771,30 +1771,30 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>580</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-60</v>
+        <v>-34</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J29" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
@@ -1806,7 +1806,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1816,30 +1816,30 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>601</v>
+        <v>550</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>580</v>
+        <v>730</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>21</v>
+        <v>-180</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J30" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
@@ -1861,17 +1861,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>Air Arabia Egypt E5-590</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>730</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-180</v>
+        <v>-168</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>30</v>
@@ -1906,17 +1906,17 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-590</t>
+          <t>Nile Air NP-118</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>562</v>
+        <v>600</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>730</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-168</v>
+        <v>-130</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>30</v>
@@ -1941,7 +1941,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>04-MAR-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1951,17 +1951,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-118</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
         <v>600</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>730</v>
+        <v>850</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-130</v>
+        <v>-250</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>30</v>
@@ -1972,9 +1972,9 @@
       <c r="I33" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J33" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
@@ -1996,26 +1996,26 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>600</v>
+        <v>739</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>850</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-250</v>
+        <v>-111</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J34" s="4" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -2041,30 +2041,30 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>739</v>
+        <v>550</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>850</v>
+        <v>658</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-111</v>
+        <v>-108</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J35" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
@@ -2086,17 +2086,17 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>658</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-108</v>
+        <v>-58</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>30</v>
@@ -2131,30 +2131,30 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>600</v>
+        <v>673</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>658</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-58</v>
+        <v>15</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J37" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
@@ -2166,7 +2166,7 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -2176,30 +2176,30 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>673</v>
+        <v>650</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>658</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>15</v>
+        <v>-8</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J38" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
@@ -2221,17 +2221,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>Nile Air NP-118</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>658</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>30</v>
@@ -2256,7 +2256,7 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>11-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -2266,17 +2266,17 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-118</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>658</v>
+        <v>1030</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-7</v>
+        <v>-380</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>30</v>
@@ -2287,9 +2287,9 @@
       <c r="I40" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J40" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
@@ -2311,30 +2311,30 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>650</v>
+        <v>739</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>1030</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-380</v>
+        <v>-291</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J41" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
@@ -2356,30 +2356,30 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>739</v>
+        <v>950</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>1030</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-291</v>
+        <v>-80</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J42" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
@@ -2391,7 +2391,7 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -2401,17 +2401,17 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>1030</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-80</v>
+        <v>-380</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>30</v>
@@ -2422,9 +2422,9 @@
       <c r="I43" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J43" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
@@ -2446,30 +2446,30 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>650</v>
+        <v>739</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>1030</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-380</v>
+        <v>-291</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J44" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
@@ -2491,30 +2491,30 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>1030</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-291</v>
+        <v>-285</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J45" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J45" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
@@ -2526,7 +2526,7 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -2536,17 +2536,17 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>745</v>
+        <v>950</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>1030</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-285</v>
+        <v>-80</v>
       </c>
       <c r="G46" s="2" t="n">
         <v>30</v>
@@ -2557,9 +2557,9 @@
       <c r="I46" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J46" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">

--- a/excel_routes/route_TUU_CAI_threats.xlsx
+++ b/excel_routes/route_TUU_CAI_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -556,26 +556,26 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>355</v>
+        <v>431</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-19</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -601,26 +601,26 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-118</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-55</v>
+        <v>97</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
@@ -636,7 +636,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>24-JAN-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -646,26 +646,26 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>319</v>
+        <v>383</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>334</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-15</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -691,26 +691,26 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-118</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-19</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
@@ -726,7 +726,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -736,26 +736,26 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-118</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-19</v>
+        <v>49</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>374</v>
+        <v>438</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>38</v>
+        <v>-55</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>46</v>
@@ -816,7 +816,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -826,30 +826,30 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-123</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>374</v>
+        <v>616</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-19</v>
+        <v>-233</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -875,13 +875,13 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>355</v>
+        <v>441</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>374</v>
+        <v>616</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-19</v>
+        <v>-175</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30</v>
@@ -906,7 +906,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>04-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -916,17 +916,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-118</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>355</v>
+        <v>520</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>374</v>
+        <v>616</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-19</v>
+        <v>-96</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -951,7 +951,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -961,30 +961,30 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>374</v>
+        <v>440</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-19</v>
+        <v>-57</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -996,7 +996,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>25-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1006,17 +1006,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>Air Arabia Egypt E5-590</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>374</v>
+        <v>475</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-19</v>
+        <v>-81</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1041,7 +1041,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>25-FEB-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1051,26 +1051,26 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nile Air NP-118</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>374</v>
+        <v>475</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>93</v>
+        <v>-34</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1100,13 +1100,13 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>334</v>
+        <v>580</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>78</v>
+        <v>-197</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>46</v>
@@ -1117,9 +1117,9 @@
       <c r="I14" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J14" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>11-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1141,17 +1141,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-118</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>355</v>
+        <v>520</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>374</v>
+        <v>580</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-19</v>
+        <v>-60</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>30</v>
@@ -1176,7 +1176,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1186,17 +1186,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>355</v>
+        <v>520</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>408</v>
+        <v>580</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-53</v>
+        <v>-60</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>30</v>
@@ -1221,7 +1221,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1235,13 +1235,13 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>412</v>
+        <v>516</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>408</v>
+        <v>580</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>4</v>
+        <v>-64</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>46</v>
@@ -1266,7 +1266,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1276,26 +1276,26 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Air Arabia Egypt E5-590</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
         <v>412</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>438</v>
+        <v>730</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-26</v>
+        <v>-318</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J18" s="4" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1321,17 +1321,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>441</v>
+        <v>550</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>616</v>
+        <v>730</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-175</v>
+        <v>-180</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>30</v>
@@ -1356,7 +1356,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1366,17 +1366,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>Nile Air NP-118</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>616</v>
+        <v>730</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-96</v>
+        <v>-130</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>30</v>
@@ -1401,7 +1401,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1411,26 +1411,26 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>546</v>
+        <v>650</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>616</v>
+        <v>850</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-70</v>
+        <v>-200</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J21" s="4" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1460,13 +1460,13 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>546</v>
+        <v>757</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>146</v>
+        <v>-93</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>46</v>
@@ -1477,9 +1477,9 @@
       <c r="I22" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -1491,7 +1491,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>25-FEB-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1501,17 +1501,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-590</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>394</v>
+        <v>550</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>475</v>
+        <v>658</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-81</v>
+        <v>-108</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>30</v>
@@ -1536,7 +1536,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>25-FEB-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1546,17 +1546,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-118</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>441</v>
+        <v>600</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>475</v>
+        <v>658</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-34</v>
+        <v>-58</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>30</v>
@@ -1581,7 +1581,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1591,30 +1591,30 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>441</v>
+        <v>691</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>580</v>
+        <v>658</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-139</v>
+        <v>33</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1626,7 +1626,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1640,13 +1640,13 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>520</v>
+        <v>650</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>580</v>
+        <v>658</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-60</v>
+        <v>-8</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>30</v>
@@ -1671,7 +1671,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1681,30 +1681,30 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nile Air NP-118</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>546</v>
+        <v>651</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>580</v>
+        <v>658</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-34</v>
+        <v>-7</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J27" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1716,7 +1716,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1726,30 +1726,30 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>441</v>
+        <v>757</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>580</v>
+        <v>1030</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-139</v>
+        <v>-273</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1771,26 +1771,26 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>601</v>
+        <v>650</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>580</v>
+        <v>1030</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>21</v>
+        <v>-380</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J29" s="4" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>04-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1816,17 +1816,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>550</v>
+        <v>745</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>730</v>
+        <v>1030</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-180</v>
+        <v>-285</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>30</v>
@@ -1837,9 +1837,9 @@
       <c r="I30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J30" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
@@ -1851,7 +1851,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>04-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1861,30 +1861,30 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-118</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>600</v>
+        <v>757</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>730</v>
+        <v>1030</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-130</v>
+        <v>-273</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J31" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1910,13 +1910,13 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>650</v>
+        <v>1081</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>850</v>
+        <v>1270</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-200</v>
+        <v>-189</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>30</v>
@@ -1927,9 +1927,9 @@
       <c r="I32" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J32" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1951,30 +1951,30 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Air Arabia Egypt E5-590</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>739</v>
+        <v>1116</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>850</v>
+        <v>1270</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-111</v>
+        <v>-154</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J33" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
@@ -1986,7 +1986,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1996,17 +1996,17 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>Nile Air NP-118</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>550</v>
+        <v>1250</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>658</v>
+        <v>1270</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-108</v>
+        <v>-20</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>30</v>
@@ -2031,7 +2031,7 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -2041,30 +2041,30 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>600</v>
+        <v>917</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>658</v>
+        <v>1270</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-58</v>
+        <v>-353</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J35" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
@@ -2076,7 +2076,7 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -2086,26 +2086,26 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>673</v>
+        <v>950</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>658</v>
+        <v>1270</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>15</v>
+        <v>-320</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>11-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -2131,17 +2131,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>650</v>
+        <v>1250</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>658</v>
+        <v>1270</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-8</v>
+        <v>-20</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>30</v>
@@ -2166,7 +2166,7 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>11-MAR-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -2176,30 +2176,30 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-118</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>651</v>
+        <v>757</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>658</v>
+        <v>730</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-7</v>
+        <v>27</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J38" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
@@ -2211,7 +2211,7 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>25-MAR-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -2221,17 +2221,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>Air Arabia Egypt E5-590</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>650</v>
+        <v>412</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>1030</v>
+        <v>616</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-380</v>
+        <v>-204</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>30</v>
@@ -2256,7 +2256,7 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>739</v>
+        <v>757</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>1030</v>
+        <v>580</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-291</v>
+        <v>177</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>46</v>
@@ -2287,9 +2287,9 @@
       <c r="I40" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J40" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>30-APR-26</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -2311,26 +2311,26 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>950</v>
+        <v>440</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>1030</v>
+        <v>550</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-80</v>
+        <v>-110</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J41" s="3" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>30-APR-26</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -2356,17 +2356,17 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>Nile Air NP-208</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>650</v>
+        <v>441</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>1030</v>
+        <v>550</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-380</v>
+        <v>-109</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>30</v>
@@ -2377,9 +2377,9 @@
       <c r="I42" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J42" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
@@ -2391,7 +2391,7 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>16-MAY-26</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -2401,30 +2401,30 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nile Air NP-208</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>739</v>
+        <v>1250</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>1030</v>
+        <v>1510</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-291</v>
+        <v>-260</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J43" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J43" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
@@ -2436,7 +2436,7 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -2446,17 +2446,17 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>Nile Air NP-208</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>745</v>
+        <v>1250</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>1030</v>
+        <v>1510</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-285</v>
+        <v>-260</v>
       </c>
       <c r="G44" s="2" t="n">
         <v>30</v>
@@ -2481,7 +2481,7 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>18-MAR-26</t>
+          <t>21-MAY-26</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -2491,17 +2491,17 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>Nile Air NP-208</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>950</v>
+        <v>1250</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>1270</v>
+        <v>1510</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-320</v>
+        <v>-260</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>30</v>
@@ -2526,7 +2526,7 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>18-MAR-26</t>
+          <t>21-MAY-26</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -2536,30 +2536,30 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-590</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>1173</v>
+        <v>1259</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>1270</v>
+        <v>1510</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-97</v>
+        <v>-251</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J46" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
@@ -2571,7 +2571,7 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>18-MAR-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -2581,17 +2581,17 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-118</t>
+          <t>Nile Air NP-308</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
         <v>1250</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>1270</v>
+        <v>1510</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-20</v>
+        <v>-260</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>30</v>
@@ -2602,9 +2602,9 @@
       <c r="I47" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J47" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
@@ -2616,7 +2616,7 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -2626,26 +2626,26 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>899</v>
+        <v>1250</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>1030</v>
+        <v>1510</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-131</v>
+        <v>-260</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J48" s="4" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -2671,30 +2671,30 @@
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>950</v>
+        <v>1259</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>1030</v>
+        <v>1510</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-80</v>
+        <v>-251</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J49" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
@@ -2706,7 +2706,7 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>21-MAR-26</t>
+          <t>23-MAY-26</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -2716,26 +2716,26 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nile Air NP-208</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>739</v>
+        <v>1250</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>730</v>
+        <v>1510</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>9</v>
+        <v>-260</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J50" s="4" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>25-MAR-26</t>
+          <t>26-MAY-26</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -2761,17 +2761,17 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-590</t>
+          <t>Nile Air NP-208</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>525</v>
+        <v>1250</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>616</v>
+        <v>1510</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>-91</v>
+        <v>-260</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>30</v>
@@ -2782,597 +2782,12 @@
       <c r="I51" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J51" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J51" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>28-MAR-26</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>739</v>
-      </c>
-      <c r="E52" s="2" t="n">
-        <v>580</v>
-      </c>
-      <c r="F52" s="2" t="n">
-        <v>159</v>
-      </c>
-      <c r="G52" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H52" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I52" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J52" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>30-APR-26</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>422</v>
-      </c>
-      <c r="E53" s="2" t="n">
-        <v>550</v>
-      </c>
-      <c r="F53" s="2" t="n">
-        <v>-128</v>
-      </c>
-      <c r="G53" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H53" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I53" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>30-APR-26</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-208</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>441</v>
-      </c>
-      <c r="E54" s="2" t="n">
-        <v>550</v>
-      </c>
-      <c r="F54" s="2" t="n">
-        <v>-109</v>
-      </c>
-      <c r="G54" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H54" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>16-MAY-26</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-208</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E55" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F55" s="2" t="n">
-        <v>-260</v>
-      </c>
-      <c r="G55" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H55" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>19-MAY-26</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-208</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E56" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F56" s="2" t="n">
-        <v>-260</v>
-      </c>
-      <c r="G56" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H56" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>21-MAY-26</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>1241</v>
-      </c>
-      <c r="E57" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F57" s="2" t="n">
-        <v>-269</v>
-      </c>
-      <c r="G57" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H57" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I57" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J57" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>21-MAY-26</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-208</t>
-        </is>
-      </c>
-      <c r="D58" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E58" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F58" s="2" t="n">
-        <v>-260</v>
-      </c>
-      <c r="G58" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H58" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>22-MAY-26</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-590</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="n">
-        <v>1178</v>
-      </c>
-      <c r="E59" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F59" s="2" t="n">
-        <v>-332</v>
-      </c>
-      <c r="G59" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H59" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>22-MAY-26</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C60" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="n">
-        <v>1241</v>
-      </c>
-      <c r="E60" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F60" s="2" t="n">
-        <v>-269</v>
-      </c>
-      <c r="G60" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H60" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I60" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J60" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>22-MAY-26</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-308</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E61" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F61" s="2" t="n">
-        <v>-260</v>
-      </c>
-      <c r="G61" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H61" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>22-MAY-26</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-108</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E62" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F62" s="2" t="n">
-        <v>-260</v>
-      </c>
-      <c r="G62" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H62" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>23-MAY-26</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C63" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-208</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E63" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F63" s="2" t="n">
-        <v>-260</v>
-      </c>
-      <c r="G63" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H63" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-208</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E64" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F64" s="2" t="n">
-        <v>-260</v>
-      </c>
-      <c r="G64" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H64" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_TUU_CAI_threats.xlsx
+++ b/excel_routes/route_TUU_CAI_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -556,26 +556,26 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>334</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>97</v>
+        <v>-15</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
@@ -601,26 +601,26 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nesma Airlines NE-123</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>431</v>
+        <v>320</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>334</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>97</v>
+        <v>-14</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
@@ -636,7 +636,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>334</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>46</v>
@@ -681,7 +681,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -695,13 +695,13 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>334</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>46</v>
@@ -726,7 +726,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -771,7 +771,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -788,10 +788,10 @@
         <v>383</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>438</v>
+        <v>334</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-55</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>46</v>
@@ -802,9 +802,9 @@
       <c r="I7" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>616</v>
+        <v>334</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-233</v>
+        <v>97</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>46</v>
@@ -847,9 +847,9 @@
       <c r="I8" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J8" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -871,30 +871,30 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>441</v>
+        <v>383</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>616</v>
+        <v>353</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-175</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -906,7 +906,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>21-FEB-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -916,30 +916,30 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>520</v>
+        <v>383</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>616</v>
+        <v>353</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-96</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -951,7 +951,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>21-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -968,10 +968,10 @@
         <v>383</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>440</v>
+        <v>353</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-57</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>46</v>
@@ -996,7 +996,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>25-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1006,26 +1006,26 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-590</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>394</v>
+        <v>516</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>475</v>
+        <v>353</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-81</v>
+        <v>163</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>25-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1051,26 +1051,26 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-118</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>441</v>
+        <v>757</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>475</v>
+        <v>616</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-34</v>
+        <v>141</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1096,30 +1096,30 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>383</v>
+        <v>520</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>580</v>
+        <v>616</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-197</v>
+        <v>-96</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J14" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1141,26 +1141,26 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>520</v>
+        <v>691</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>580</v>
+        <v>616</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-60</v>
+        <v>75</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1186,30 +1186,30 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>520</v>
+        <v>757</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>580</v>
+        <v>730</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-60</v>
+        <v>27</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J16" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1235,13 +1235,13 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>516</v>
+        <v>757</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>580</v>
+        <v>658</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-64</v>
+        <v>99</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>46</v>
@@ -1252,9 +1252,9 @@
       <c r="I17" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J17" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1266,7 +1266,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>04-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1276,26 +1276,26 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-590</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>412</v>
+        <v>917</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>730</v>
+        <v>1030</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-318</v>
+        <v>-113</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J18" s="4" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>04-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1325,13 +1325,13 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>730</v>
+        <v>1030</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-180</v>
+        <v>-80</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>30</v>
@@ -1356,7 +1356,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>04-MAR-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1366,30 +1366,30 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-118</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>600</v>
+        <v>757</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>730</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-130</v>
+        <v>27</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1411,30 +1411,30 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>650</v>
+        <v>757</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>850</v>
+        <v>580</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-200</v>
+        <v>177</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1446,7 +1446,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>30-APR-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1456,30 +1456,30 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nesma Airlines NE-123</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>757</v>
+        <v>435</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-93</v>
+        <v>-115</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -1491,7 +1491,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>30-APR-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1501,26 +1501,26 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
+        <v>440</v>
+      </c>
+      <c r="E23" s="2" t="n">
         <v>550</v>
       </c>
-      <c r="E23" s="2" t="n">
-        <v>658</v>
-      </c>
       <c r="F23" s="2" t="n">
-        <v>-108</v>
+        <v>-110</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J23" s="3" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>30-APR-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1546,17 +1546,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>Nile Air NP-208</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>600</v>
+        <v>441</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>658</v>
+        <v>550</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-58</v>
+        <v>-109</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>30</v>
@@ -1581,7 +1581,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>16-MAY-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1591,26 +1591,26 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nile Air NP-208</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>691</v>
+        <v>1250</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>658</v>
+        <v>1510</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>33</v>
+        <v>-260</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>11-MAR-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1636,17 +1636,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>Nile Air NP-208</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>650</v>
+        <v>1250</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>658</v>
+        <v>1510</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-8</v>
+        <v>-260</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>30</v>
@@ -1657,9 +1657,9 @@
       <c r="I26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J26" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>11-MAR-26</t>
+          <t>21-MAY-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1681,17 +1681,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-118</t>
+          <t>Nile Air NP-208</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>651</v>
+        <v>1250</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>658</v>
+        <v>1510</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-7</v>
+        <v>-260</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>30</v>
@@ -1702,9 +1702,9 @@
       <c r="I27" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J27" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1716,7 +1716,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>21-MAY-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1730,13 +1730,13 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>757</v>
+        <v>1259</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>1030</v>
+        <v>1510</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-273</v>
+        <v>-251</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>46</v>
@@ -1761,7 +1761,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1771,17 +1771,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>Air Arabia Egypt E5-590</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>650</v>
+        <v>1122</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>1030</v>
+        <v>1510</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-380</v>
+        <v>-388</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>30</v>
@@ -1806,7 +1806,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1816,17 +1816,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>Nile Air NP-308</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>745</v>
+        <v>1250</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>1030</v>
+        <v>1510</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-285</v>
+        <v>-260</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>30</v>
@@ -1851,7 +1851,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1861,30 +1861,30 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>757</v>
+        <v>1250</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>1030</v>
+        <v>1510</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-273</v>
+        <v>-260</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J31" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J31" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>18-MAR-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1906,30 +1906,30 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1081</v>
+        <v>1259</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>1270</v>
+        <v>1510</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-189</v>
+        <v>-251</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J32" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>18-MAR-26</t>
+          <t>23-MAY-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1951,17 +1951,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-590</t>
+          <t>Nile Air NP-208</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>1116</v>
+        <v>1250</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>1270</v>
+        <v>1510</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-154</v>
+        <v>-260</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>30</v>
@@ -1972,9 +1972,9 @@
       <c r="I33" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J33" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
@@ -1986,7 +1986,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>18-MAR-26</t>
+          <t>26-MAY-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1996,17 +1996,17 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-118</t>
+          <t>Nile Air NP-208</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
         <v>1250</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>1270</v>
+        <v>1510</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-20</v>
+        <v>-260</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>30</v>
@@ -2017,777 +2017,12 @@
       <c r="I34" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J34" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>19-MAR-26</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>917</v>
-      </c>
-      <c r="E35" s="2" t="n">
-        <v>1270</v>
-      </c>
-      <c r="F35" s="2" t="n">
-        <v>-353</v>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J35" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>19-MAR-26</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>Nesma Airlines NE-121</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>950</v>
-      </c>
-      <c r="E36" s="2" t="n">
-        <v>1270</v>
-      </c>
-      <c r="F36" s="2" t="n">
-        <v>-320</v>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>19-MAR-26</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-108</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>1270</v>
-      </c>
-      <c r="F37" s="2" t="n">
-        <v>-20</v>
-      </c>
-      <c r="G37" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>21-MAR-26</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>757</v>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v>730</v>
-      </c>
-      <c r="F38" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J38" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>25-MAR-26</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-590</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>412</v>
-      </c>
-      <c r="E39" s="2" t="n">
-        <v>616</v>
-      </c>
-      <c r="F39" s="2" t="n">
-        <v>-204</v>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>28-MAR-26</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>757</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>580</v>
-      </c>
-      <c r="F40" s="2" t="n">
-        <v>177</v>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>30-APR-26</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>440</v>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>550</v>
-      </c>
-      <c r="F41" s="2" t="n">
-        <v>-110</v>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>30-APR-26</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-208</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>441</v>
-      </c>
-      <c r="E42" s="2" t="n">
-        <v>550</v>
-      </c>
-      <c r="F42" s="2" t="n">
-        <v>-109</v>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>16-MAY-26</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-208</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F43" s="2" t="n">
-        <v>-260</v>
-      </c>
-      <c r="G43" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>19-MAY-26</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-208</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F44" s="2" t="n">
-        <v>-260</v>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>21-MAY-26</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-208</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F45" s="2" t="n">
-        <v>-260</v>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>21-MAY-26</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>1259</v>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F46" s="2" t="n">
-        <v>-251</v>
-      </c>
-      <c r="G46" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J46" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>22-MAY-26</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-308</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F47" s="2" t="n">
-        <v>-260</v>
-      </c>
-      <c r="G47" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>22-MAY-26</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-108</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F48" s="2" t="n">
-        <v>-260</v>
-      </c>
-      <c r="G48" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>22-MAY-26</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>1259</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F49" s="2" t="n">
-        <v>-251</v>
-      </c>
-      <c r="G49" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J49" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>23-MAY-26</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-208</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F50" s="2" t="n">
-        <v>-260</v>
-      </c>
-      <c r="G50" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-208</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F51" s="2" t="n">
-        <v>-260</v>
-      </c>
-      <c r="G51" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_TUU_CAI_threats.xlsx
+++ b/excel_routes/route_TUU_CAI_threats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_030226_at_07.14\reports\excel_routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_300126_at_05.16\reports\excel_routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89AE24C-9B1D-4BC1-966D-D6CA11C45ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24AB8ED-F309-4015-9992-E508678B8052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -60,46 +60,109 @@
     <t>Currency</t>
   </si>
   <si>
+    <t>31-JAN-26</t>
+  </si>
+  <si>
+    <t>SM-326</t>
+  </si>
+  <si>
+    <t>Nile Air NP-108</t>
+  </si>
+  <si>
+    <t>LOW THREAT</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>Nesma Airlines NE-123</t>
+  </si>
+  <si>
+    <t>EgyptAir MS-812</t>
+  </si>
+  <si>
     <t>05-FEB-26</t>
   </si>
   <si>
-    <t>SM-326</t>
+    <t>07-FEB-26</t>
+  </si>
+  <si>
+    <t>12-FEB-26</t>
+  </si>
+  <si>
+    <t>14-FEB-26</t>
+  </si>
+  <si>
+    <t>19-FEB-26</t>
+  </si>
+  <si>
+    <t>MEDIUM THREAT - MONITOR</t>
+  </si>
+  <si>
+    <t>21-FEB-26</t>
+  </si>
+  <si>
+    <t>26-FEB-26</t>
+  </si>
+  <si>
+    <t>28-FEB-26</t>
+  </si>
+  <si>
+    <t>05-MAR-26</t>
+  </si>
+  <si>
+    <t>07-MAR-26</t>
   </si>
   <si>
     <t>Nesma Airlines NE-121</t>
   </si>
   <si>
-    <t>LOW THREAT</t>
-  </si>
-  <si>
-    <t>SAR</t>
-  </si>
-  <si>
-    <t>EgyptAir MS-812</t>
-  </si>
-  <si>
-    <t>07-FEB-26</t>
-  </si>
-  <si>
-    <t>MEDIUM THREAT - MONITOR</t>
-  </si>
-  <si>
-    <t>12-FEB-26</t>
-  </si>
-  <si>
-    <t>Nile Air NP-108</t>
-  </si>
-  <si>
-    <t>14-FEB-26</t>
-  </si>
-  <si>
-    <t>28-FEB-26</t>
-  </si>
-  <si>
-    <t>04-MAR-26</t>
-  </si>
-  <si>
-    <t>Nile Air NP-118</t>
+    <t>12-MAR-26</t>
+  </si>
+  <si>
+    <t>14-MAR-26</t>
+  </si>
+  <si>
+    <t>19-MAR-26</t>
+  </si>
+  <si>
+    <t>21-MAR-26</t>
+  </si>
+  <si>
+    <t>28-MAR-26</t>
+  </si>
+  <si>
+    <t>30-APR-26</t>
+  </si>
+  <si>
+    <t>Nile Air NP-208</t>
+  </si>
+  <si>
+    <t>16-MAY-26</t>
+  </si>
+  <si>
+    <t>19-MAY-26</t>
+  </si>
+  <si>
+    <t>21-MAY-26</t>
+  </si>
+  <si>
+    <t>HIGH THREAT ALERT - NEED ACTION</t>
+  </si>
+  <si>
+    <t>22-MAY-26</t>
+  </si>
+  <si>
+    <t>Air Arabia Egypt E5-590</t>
+  </si>
+  <si>
+    <t>Nile Air NP-308</t>
+  </si>
+  <si>
+    <t>23-MAY-26</t>
+  </si>
+  <si>
+    <t>26-MAY-26</t>
   </si>
 </sst>
 </file>
@@ -126,7 +189,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +212,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF3CD"/>
         <bgColor rgb="FFFFF3CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8D7DA"/>
+        <bgColor rgb="FFF8D7DA"/>
       </patternFill>
     </fill>
   </fills>
@@ -179,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -191,6 +260,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,7 +568,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,13 +576,13 @@
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="153.44140625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="10" max="10" width="30" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -560,13 +632,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>435</v>
+        <v>319</v>
       </c>
       <c r="E2" s="2">
-        <v>440</v>
+        <v>334</v>
       </c>
       <c r="F2" s="2">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="G2" s="2">
         <v>30</v>
@@ -595,22 +667,22 @@
         <v>16</v>
       </c>
       <c r="D3" s="2">
-        <v>619</v>
+        <v>320</v>
       </c>
       <c r="E3" s="2">
-        <v>440</v>
+        <v>334</v>
       </c>
       <c r="F3" s="2">
-        <v>179</v>
+        <v>-14</v>
       </c>
       <c r="G3" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2">
         <v>30</v>
       </c>
       <c r="I3" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>14</v>
@@ -621,22 +693,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2">
         <v>431</v>
       </c>
       <c r="E4" s="2">
-        <v>440</v>
+        <v>334</v>
       </c>
       <c r="F4" s="2">
-        <v>-9</v>
+        <v>97</v>
       </c>
       <c r="G4" s="2">
         <v>46</v>
@@ -647,8 +719,8 @@
       <c r="I4" s="2">
         <v>-16</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>18</v>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>15</v>
@@ -656,31 +728,31 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
-        <v>355</v>
+        <v>431</v>
       </c>
       <c r="E5" s="2">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="F5" s="2">
-        <v>-45</v>
+        <v>97</v>
       </c>
       <c r="G5" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2">
         <v>30</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>14</v>
@@ -697,25 +769,25 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="E6" s="2">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="F6" s="2">
-        <v>-45</v>
+        <v>49</v>
       </c>
       <c r="G6" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H6" s="2">
         <v>30</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>14</v>
@@ -726,22 +798,22 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2">
-        <v>431</v>
+        <v>383</v>
       </c>
       <c r="E7" s="2">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="F7" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2">
         <v>46</v>
@@ -752,8 +824,8 @@
       <c r="I7" s="2">
         <v>-16</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>18</v>
+      <c r="J7" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>15</v>
@@ -767,25 +839,25 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>355</v>
+        <v>431</v>
       </c>
       <c r="E8" s="2">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="F8" s="2">
-        <v>-45</v>
+        <v>97</v>
       </c>
       <c r="G8" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2">
         <v>30</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>14</v>
@@ -796,34 +868,34 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="E9" s="2">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="F9" s="2">
-        <v>-45</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2">
         <v>30</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>14</v>
+        <v>-16</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>15</v>
@@ -831,22 +903,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2">
-        <v>431</v>
+        <v>383</v>
       </c>
       <c r="E10" s="2">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="F10" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2">
         <v>46</v>
@@ -858,7 +930,7 @@
         <v>-16</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>15</v>
@@ -866,13 +938,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2">
         <v>383</v>
@@ -893,7 +965,7 @@
         <v>-16</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>15</v>
@@ -901,31 +973,31 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E12" s="2">
-        <v>550</v>
+        <v>353</v>
       </c>
       <c r="F12" s="2">
-        <v>-30</v>
+        <v>163</v>
       </c>
       <c r="G12" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H12" s="2">
         <v>30</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>14</v>
@@ -936,36 +1008,771 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2">
-        <v>520</v>
+        <v>757</v>
       </c>
       <c r="E13" s="2">
-        <v>550</v>
+        <v>616</v>
       </c>
       <c r="F13" s="2">
-        <v>-30</v>
+        <v>141</v>
       </c>
       <c r="G13" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H13" s="2">
         <v>30</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2">
+        <v>520</v>
+      </c>
+      <c r="E14" s="2">
+        <v>616</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-96</v>
+      </c>
+      <c r="G14" s="2">
+        <v>30</v>
+      </c>
+      <c r="H14" s="2">
+        <v>30</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2">
+        <v>691</v>
+      </c>
+      <c r="E15" s="2">
+        <v>616</v>
+      </c>
+      <c r="F15" s="2">
+        <v>75</v>
+      </c>
+      <c r="G15" s="2">
+        <v>46</v>
+      </c>
+      <c r="H15" s="2">
+        <v>30</v>
+      </c>
+      <c r="I15" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2">
+        <v>757</v>
+      </c>
+      <c r="E16" s="2">
+        <v>730</v>
+      </c>
+      <c r="F16" s="2">
+        <v>27</v>
+      </c>
+      <c r="G16" s="2">
+        <v>46</v>
+      </c>
+      <c r="H16" s="2">
+        <v>30</v>
+      </c>
+      <c r="I16" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2">
+        <v>757</v>
+      </c>
+      <c r="E17" s="2">
+        <v>658</v>
+      </c>
+      <c r="F17" s="2">
+        <v>99</v>
+      </c>
+      <c r="G17" s="2">
+        <v>46</v>
+      </c>
+      <c r="H17" s="2">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2">
+        <v>917</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1030</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-113</v>
+      </c>
+      <c r="G18" s="2">
+        <v>46</v>
+      </c>
+      <c r="H18" s="2">
+        <v>30</v>
+      </c>
+      <c r="I18" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="2">
+        <v>950</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1030</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-80</v>
+      </c>
+      <c r="G19" s="2">
+        <v>30</v>
+      </c>
+      <c r="H19" s="2">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2">
+        <v>757</v>
+      </c>
+      <c r="E20" s="2">
+        <v>730</v>
+      </c>
+      <c r="F20" s="2">
+        <v>27</v>
+      </c>
+      <c r="G20" s="2">
+        <v>46</v>
+      </c>
+      <c r="H20" s="2">
+        <v>30</v>
+      </c>
+      <c r="I20" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2">
+        <v>757</v>
+      </c>
+      <c r="E21" s="2">
+        <v>580</v>
+      </c>
+      <c r="F21" s="2">
+        <v>177</v>
+      </c>
+      <c r="G21" s="2">
+        <v>46</v>
+      </c>
+      <c r="H21" s="2">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2">
+        <v>435</v>
+      </c>
+      <c r="E22" s="2">
+        <v>550</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-115</v>
+      </c>
+      <c r="G22" s="2">
+        <v>30</v>
+      </c>
+      <c r="H22" s="2">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2">
+        <v>440</v>
+      </c>
+      <c r="E23" s="2">
+        <v>550</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-110</v>
+      </c>
+      <c r="G23" s="2">
+        <v>23</v>
+      </c>
+      <c r="H23" s="2">
+        <v>30</v>
+      </c>
+      <c r="I23" s="2">
+        <v>7</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="2">
+        <v>441</v>
+      </c>
+      <c r="E24" s="2">
+        <v>550</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-109</v>
+      </c>
+      <c r="G24" s="2">
+        <v>30</v>
+      </c>
+      <c r="H24" s="2">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1250</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1510</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-260</v>
+      </c>
+      <c r="G25" s="2">
+        <v>30</v>
+      </c>
+      <c r="H25" s="2">
+        <v>30</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1250</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1510</v>
+      </c>
+      <c r="F26" s="2">
+        <v>-260</v>
+      </c>
+      <c r="G26" s="2">
+        <v>30</v>
+      </c>
+      <c r="H26" s="2">
+        <v>30</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1250</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1510</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-260</v>
+      </c>
+      <c r="G27" s="2">
+        <v>30</v>
+      </c>
+      <c r="H27" s="2">
+        <v>30</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1259</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1510</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-251</v>
+      </c>
+      <c r="G28" s="2">
+        <v>46</v>
+      </c>
+      <c r="H28" s="2">
+        <v>30</v>
+      </c>
+      <c r="I28" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1122</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1510</v>
+      </c>
+      <c r="F29" s="2">
+        <v>-388</v>
+      </c>
+      <c r="G29" s="2">
+        <v>30</v>
+      </c>
+      <c r="H29" s="2">
+        <v>30</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1250</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1510</v>
+      </c>
+      <c r="F30" s="2">
+        <v>-260</v>
+      </c>
+      <c r="G30" s="2">
+        <v>30</v>
+      </c>
+      <c r="H30" s="2">
+        <v>30</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1250</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1510</v>
+      </c>
+      <c r="F31" s="2">
+        <v>-260</v>
+      </c>
+      <c r="G31" s="2">
+        <v>30</v>
+      </c>
+      <c r="H31" s="2">
+        <v>30</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1259</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1510</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-251</v>
+      </c>
+      <c r="G32" s="2">
+        <v>46</v>
+      </c>
+      <c r="H32" s="2">
+        <v>30</v>
+      </c>
+      <c r="I32" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1250</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1510</v>
+      </c>
+      <c r="F33" s="2">
+        <v>-260</v>
+      </c>
+      <c r="G33" s="2">
+        <v>30</v>
+      </c>
+      <c r="H33" s="2">
+        <v>30</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1250</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1510</v>
+      </c>
+      <c r="F34" s="2">
+        <v>-260</v>
+      </c>
+      <c r="G34" s="2">
+        <v>30</v>
+      </c>
+      <c r="H34" s="2">
+        <v>30</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/excel_routes/route_TUU_CAI_threats.xlsx
+++ b/excel_routes/route_TUU_CAI_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -58,12 +58,6 @@
         <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F8D7DA"/>
-        <bgColor rgb="00F8D7DA"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -83,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -95,9 +89,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +473,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -546,7 +537,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -556,17 +547,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>355</v>
+        <v>650</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>440</v>
+        <v>730</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-85</v>
+        <v>-80</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -591,7 +582,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -605,13 +596,13 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>355</v>
+        <v>651</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>400</v>
+        <v>730</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-45</v>
+        <v>-79</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -636,7 +627,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -650,13 +641,13 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>508</v>
+        <v>887</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>440</v>
+        <v>730</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>46</v>
@@ -681,7 +672,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -691,26 +682,26 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>508</v>
+        <v>600</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>400</v>
+        <v>658</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>108</v>
+        <v>-58</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
@@ -726,7 +717,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>04-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -736,26 +727,26 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-590</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>711</v>
+        <v>600</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>580</v>
+        <v>658</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>131</v>
+        <v>-58</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
@@ -771,7 +762,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -781,26 +772,26 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>651</v>
+        <v>887</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>730</v>
+        <v>658</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-79</v>
+        <v>229</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
@@ -816,7 +807,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -826,26 +817,26 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>887</v>
+        <v>600</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>730</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>157</v>
+        <v>-130</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
@@ -861,7 +852,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -871,17 +862,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>Nile Air NP-308</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
         <v>600</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>658</v>
+        <v>730</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-58</v>
+        <v>-130</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30</v>
@@ -906,7 +897,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -916,17 +907,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-121</t>
+          <t>Air Arabia Egypt E5-590</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>658</v>
+        <v>730</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-8</v>
+        <v>-100</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -951,7 +942,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -961,30 +952,30 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>681</v>
+        <v>845</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>658</v>
+        <v>850</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>23</v>
+        <v>-5</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J11" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -996,7 +987,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>11-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1006,26 +997,26 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-590</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>667</v>
+        <v>917</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>730</v>
+        <v>850</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-63</v>
+        <v>67</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
@@ -1041,7 +1032,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1051,26 +1042,26 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>917</v>
+        <v>845</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>730</v>
+        <v>850</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>187</v>
+        <v>-5</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
@@ -1190,13 +1181,13 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1061</v>
+        <v>1117</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1270</v>
+        <v>1510</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-209</v>
+        <v>-393</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>30</v>
@@ -1221,7 +1212,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1231,7 +1222,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-108</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
@@ -1266,7 +1257,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1276,30 +1267,30 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nile Air NP-118</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1259</v>
+        <v>1450</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>1510</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-251</v>
+        <v>-60</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J18" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1325,13 +1316,13 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1450</v>
+        <v>1250</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>1510</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-60</v>
+        <v>-260</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>30</v>
@@ -1342,9 +1333,9 @@
       <c r="I19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J19" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J19" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1356,7 +1347,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1366,30 +1357,30 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>628</v>
+        <v>1250</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>475</v>
+        <v>1510</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>153</v>
+        <v>-260</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1401,7 +1392,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>02-APR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1411,26 +1402,26 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-123</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>520</v>
+        <v>1694</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>580</v>
+        <v>1510</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-60</v>
+        <v>184</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J21" s="3" t="inlineStr">
         <is>
@@ -1446,7 +1437,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>02-APR-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1456,26 +1447,26 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>628</v>
+        <v>651</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>580</v>
+        <v>730</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>48</v>
+        <v>-79</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
@@ -1491,7 +1482,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1501,26 +1492,26 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-308</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>520</v>
+        <v>917</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>550</v>
+        <v>730</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-30</v>
+        <v>187</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J23" s="3" t="inlineStr">
         <is>
@@ -1536,7 +1527,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>25-MAR-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1546,30 +1537,30 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>566</v>
+        <v>520</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>550</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>16</v>
+        <v>-30</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -1581,7 +1572,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>09-APR-26</t>
+          <t>25-MAR-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1591,17 +1582,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-123</t>
+          <t>Nile Air NP-118</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>355</v>
+        <v>520</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-45</v>
+        <v>-30</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>30</v>
@@ -1626,7 +1617,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>23-APR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1636,17 +1627,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-123</t>
+          <t>Nile Air NP-108</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>355</v>
+        <v>520</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>440</v>
+        <v>550</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-85</v>
+        <v>-30</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>30</v>
@@ -1671,7 +1662,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>30-APR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1681,26 +1672,26 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-123</t>
+          <t>EgyptAir MS-812</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>435</v>
+        <v>757</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>550</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-115</v>
+        <v>207</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J27" s="3" t="inlineStr">
         <is>
@@ -1716,7 +1707,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>30-APR-26</t>
+          <t>31-MAR-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1726,26 +1717,26 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-812</t>
+          <t>Nile Air NP-208</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>550</v>
+        <v>616</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-110</v>
+        <v>-96</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
@@ -1761,7 +1752,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>30-APR-26</t>
+          <t>31-MAR-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1771,17 +1762,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-208</t>
+          <t>Nesma Airlines NE-121</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>441</v>
+        <v>600</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>550</v>
+        <v>616</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-109</v>
+        <v>-16</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>30</v>
@@ -1798,1176 +1789,6 @@
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>16-MAY-26</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-208</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>-260</v>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>19-MAY-26</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-208</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F31" s="2" t="n">
-        <v>-260</v>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>21-MAY-26</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-208</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E32" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F32" s="2" t="n">
-        <v>-260</v>
-      </c>
-      <c r="G32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>21-MAY-26</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>1259</v>
-      </c>
-      <c r="E33" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F33" s="2" t="n">
-        <v>-251</v>
-      </c>
-      <c r="G33" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J33" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>22-MAY-26</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-590</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>1123</v>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F34" s="2" t="n">
-        <v>-387</v>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>22-MAY-26</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-308</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E35" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F35" s="2" t="n">
-        <v>-260</v>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>22-MAY-26</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-108</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E36" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F36" s="2" t="n">
-        <v>-260</v>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>22-MAY-26</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>1259</v>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F37" s="2" t="n">
-        <v>-251</v>
-      </c>
-      <c r="G37" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J37" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>23-MAY-26</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-208</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F38" s="2" t="n">
-        <v>-260</v>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-208</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E39" s="2" t="n">
-        <v>1510</v>
-      </c>
-      <c r="F39" s="2" t="n">
-        <v>-260</v>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>02-JUN-26</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-208</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>441</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>658</v>
-      </c>
-      <c r="F40" s="2" t="n">
-        <v>-217</v>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>04-JUN-26</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>440</v>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>658</v>
-      </c>
-      <c r="F41" s="2" t="n">
-        <v>-218</v>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>04-JUN-26</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-208</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>441</v>
-      </c>
-      <c r="E42" s="2" t="n">
-        <v>658</v>
-      </c>
-      <c r="F42" s="2" t="n">
-        <v>-217</v>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>05-JUN-26</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-590</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>418</v>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>658</v>
-      </c>
-      <c r="F43" s="2" t="n">
-        <v>-240</v>
-      </c>
-      <c r="G43" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>05-JUN-26</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>440</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>658</v>
-      </c>
-      <c r="F44" s="2" t="n">
-        <v>-218</v>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J44" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>05-JUN-26</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-308</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>441</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>658</v>
-      </c>
-      <c r="F45" s="2" t="n">
-        <v>-217</v>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>05-JUN-26</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-108</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>441</v>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>658</v>
-      </c>
-      <c r="F46" s="2" t="n">
-        <v>-217</v>
-      </c>
-      <c r="G46" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>06-JUN-26</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-208</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>441</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>658</v>
-      </c>
-      <c r="F47" s="2" t="n">
-        <v>-217</v>
-      </c>
-      <c r="G47" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>09-JUN-26</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-208</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>441</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>658</v>
-      </c>
-      <c r="F48" s="2" t="n">
-        <v>-217</v>
-      </c>
-      <c r="G48" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>25-JUN-26</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-208</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>1810</v>
-      </c>
-      <c r="F49" s="2" t="n">
-        <v>-560</v>
-      </c>
-      <c r="G49" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>25-JUN-26</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>1259</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>1810</v>
-      </c>
-      <c r="F50" s="2" t="n">
-        <v>-551</v>
-      </c>
-      <c r="G50" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J50" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>26-JUN-26</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-590</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>1123</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>1810</v>
-      </c>
-      <c r="F51" s="2" t="n">
-        <v>-687</v>
-      </c>
-      <c r="G51" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>26-JUN-26</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-308</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E52" s="2" t="n">
-        <v>1810</v>
-      </c>
-      <c r="F52" s="2" t="n">
-        <v>-560</v>
-      </c>
-      <c r="G52" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H52" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>26-JUN-26</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-108</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E53" s="2" t="n">
-        <v>1810</v>
-      </c>
-      <c r="F53" s="2" t="n">
-        <v>-560</v>
-      </c>
-      <c r="G53" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H53" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>26-JUN-26</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-812</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>1259</v>
-      </c>
-      <c r="E54" s="2" t="n">
-        <v>1810</v>
-      </c>
-      <c r="F54" s="2" t="n">
-        <v>-551</v>
-      </c>
-      <c r="G54" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H54" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I54" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J54" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>27-JUN-26</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>SM-326</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-208</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E55" s="2" t="n">
-        <v>1810</v>
-      </c>
-      <c r="F55" s="2" t="n">
-        <v>-560</v>
-      </c>
-      <c r="G55" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H55" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>
